--- a/MISTDO.Web/wwwroot/ExportTrainings.xlsx
+++ b/MISTDO.Web/wwwroot/ExportTrainings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Training Name</t>
   </si>
@@ -32,43 +32,37 @@
     <t xml:space="preserve">Certifcate Gen  Date</t>
   </si>
   <si>
-    <t>DevOps Dynamics</t>
-  </si>
-  <si>
-    <t>19235ea5-fb0e-44a5-87b5-14c82daee64d</t>
-  </si>
-  <si>
-    <t>431f5c49-a4e8-458a-a318-a0488bcb75e6</t>
-  </si>
-  <si>
-    <t>11/3/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/22/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/21/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>SHE safety Introductions Training</t>
-  </si>
-  <si>
-    <t>1273bfea-22ee-4c96-b630-1b8a768e60d7</t>
-  </si>
-  <si>
-    <t>11/23/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/2/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/30/2018 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>fdfcd166-ddea-4bca-b7d0-da2cadfbb7aa</t>
-  </si>
-  <si>
-    <t>SHE Upstream Teq</t>
+    <t>SHE Downstream HSE</t>
+  </si>
+  <si>
+    <t>b920c8e9-1769-4bb3-ac80-df01a0ac3289</t>
+  </si>
+  <si>
+    <t>dedcabd6-2a95-41d3-98ad-18eef730409c</t>
+  </si>
+  <si>
+    <t>1/23/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/7/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>1360e32b-6a80-4974-af04-434e2c64caf1</t>
+  </si>
+  <si>
+    <t>2/9/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/20/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>1/1/0001 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/2/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>2/28/2019 12:00:00 AM</t>
   </si>
 </sst>
 </file>
@@ -120,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -164,30 +158,30 @@
         <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -198,7 +192,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>15</v>
@@ -207,47 +201,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
